--- a/biology/Botanique/Colli_Bolognesi_Pignoletto_spumante/Colli_Bolognesi_Pignoletto_spumante.xlsx
+++ b/biology/Botanique/Colli_Bolognesi_Pignoletto_spumante/Colli_Bolognesi_Pignoletto_spumante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Bolognesi Pignoletto spumante est un vin effervescent blanc italien de la région Émilie-Romagne doté d'une appellation DOC depuis le 29 mai 1975. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  vignobles autorisés en province de Bologne et en province de Modène dans les communes de Monteveglio, Castello di Serravalle, Monte San Pietro, Sasso Marconi, Savigno, Marzabotto, Pianoro, Bazzano, Crespellano, Casalecchio di Reno, Bologne, San Lazzaro di Savena, Zola Predosa, Monterenzio et en partie dans la commune de Savignano sul Panaro.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille claire avec des reflets verdâtres, mousse persistante
 odeur :  délicat, caractéristique, légèrement aromatique
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
